--- a/src/analysis_examples/circadb/results_lomb/cosinor_10361509_syne1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10361509_syne1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2066405050444357, 0.33613182999423824]</t>
+          <t>[0.20879771895153776, 0.3339746160871362]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.02554428785362e-08</v>
+        <v>1.147841688364792e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>2.02554428785362e-08</v>
+        <v>1.147841688364792e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6666843268879239</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.37921839624792686, 0.44619420949363475]</t>
+          <t>[0.3792256428837457, 0.4461869628578159]</t>
         </is>
       </c>
       <c r="U2" t="n">
